--- a/data/pca/factorExposure/factorExposure_2017-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01724942723003198</v>
+        <v>0.01105526116752568</v>
       </c>
       <c r="C2">
-        <v>0.01771483216578453</v>
+        <v>-0.04040771566603235</v>
       </c>
       <c r="D2">
-        <v>0.02669720627949509</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03136471826402686</v>
+      </c>
+      <c r="E2">
+        <v>0.05016967476970708</v>
+      </c>
+      <c r="F2">
+        <v>-0.003884250319131753</v>
+      </c>
+      <c r="G2">
+        <v>0.1142276006420992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04354262578349054</v>
+        <v>0.0389356797221256</v>
       </c>
       <c r="C3">
-        <v>-0.01121779235781729</v>
+        <v>-0.0998785106877525</v>
       </c>
       <c r="D3">
-        <v>0.1066484193240865</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01815607625587226</v>
+      </c>
+      <c r="E3">
+        <v>0.09846446554276927</v>
+      </c>
+      <c r="F3">
+        <v>-0.0182312961662096</v>
+      </c>
+      <c r="G3">
+        <v>0.1322650829019335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03763199450828196</v>
+        <v>0.05504544176726724</v>
       </c>
       <c r="C4">
-        <v>0.005849035527497537</v>
+        <v>-0.06673573445922704</v>
       </c>
       <c r="D4">
-        <v>0.07357222116441406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02546776957324672</v>
+      </c>
+      <c r="E4">
+        <v>0.04037980213949846</v>
+      </c>
+      <c r="F4">
+        <v>-0.001828815310656272</v>
+      </c>
+      <c r="G4">
+        <v>0.1030203281212023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01039504223028945</v>
+        <v>0.03469750643845612</v>
       </c>
       <c r="C6">
-        <v>0.009746002739462108</v>
+        <v>-0.05151697911765168</v>
       </c>
       <c r="D6">
-        <v>0.05799671673321756</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01836710884732197</v>
+      </c>
+      <c r="E6">
+        <v>0.04670673156695875</v>
+      </c>
+      <c r="F6">
+        <v>-0.002259474561264212</v>
+      </c>
+      <c r="G6">
+        <v>0.08815890409388974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001675257780222941</v>
+        <v>0.02068672559995571</v>
       </c>
       <c r="C7">
-        <v>0.01053629771277845</v>
+        <v>-0.03806143114520437</v>
       </c>
       <c r="D7">
-        <v>0.02756448701013427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01484619755846045</v>
+      </c>
+      <c r="E7">
+        <v>0.01806992210404391</v>
+      </c>
+      <c r="F7">
+        <v>0.003673497694738549</v>
+      </c>
+      <c r="G7">
+        <v>0.1269472771254251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004505757922852325</v>
+        <v>0.003570464072404814</v>
       </c>
       <c r="C8">
-        <v>0.002551280159884486</v>
+        <v>-0.02387894171491598</v>
       </c>
       <c r="D8">
-        <v>-0.01202744049749427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00419103228499166</v>
+      </c>
+      <c r="E8">
+        <v>0.03175104894412473</v>
+      </c>
+      <c r="F8">
+        <v>-0.001965679725734372</v>
+      </c>
+      <c r="G8">
+        <v>0.06946679312551893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01290533868426906</v>
+        <v>0.03278845725412938</v>
       </c>
       <c r="C9">
-        <v>0.007934112609181669</v>
+        <v>-0.04830365939979707</v>
       </c>
       <c r="D9">
-        <v>0.04441950646831601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0168249673529387</v>
+      </c>
+      <c r="E9">
+        <v>0.02719102718562731</v>
+      </c>
+      <c r="F9">
+        <v>0.0004629620149947566</v>
+      </c>
+      <c r="G9">
+        <v>0.1054661312322368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1323740913384822</v>
+        <v>0.09916782631378131</v>
       </c>
       <c r="C10">
-        <v>-0.05008933044734654</v>
+        <v>0.1830416348616507</v>
       </c>
       <c r="D10">
-        <v>-0.163538542608816</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01567541870817252</v>
+      </c>
+      <c r="E10">
+        <v>0.01991931359491222</v>
+      </c>
+      <c r="F10">
+        <v>-0.02319730585976321</v>
+      </c>
+      <c r="G10">
+        <v>0.0541538748293658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.009561585085878505</v>
+        <v>0.03522268619282667</v>
       </c>
       <c r="C11">
-        <v>-0.004594174793656617</v>
+        <v>-0.05157837009596123</v>
       </c>
       <c r="D11">
-        <v>0.04288270072423735</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002874334531827211</v>
+      </c>
+      <c r="E11">
+        <v>0.02208742365024353</v>
+      </c>
+      <c r="F11">
+        <v>0.01552413075045363</v>
+      </c>
+      <c r="G11">
+        <v>0.08809407172473703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0125475437906427</v>
+        <v>0.03738190364630796</v>
       </c>
       <c r="C12">
-        <v>-0.0002423308337829204</v>
+        <v>-0.04639844362726768</v>
       </c>
       <c r="D12">
-        <v>0.03859157490886795</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006943521367782286</v>
+      </c>
+      <c r="E12">
+        <v>0.01181010365084386</v>
+      </c>
+      <c r="F12">
+        <v>0.002591379187295188</v>
+      </c>
+      <c r="G12">
+        <v>0.08362880120510348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01188882731044488</v>
+        <v>0.01270773707333348</v>
       </c>
       <c r="C13">
-        <v>0.01743588064854696</v>
+        <v>-0.0400391494572152</v>
       </c>
       <c r="D13">
-        <v>0.0236144704570677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02818042345287241</v>
+      </c>
+      <c r="E13">
+        <v>0.05088810556816664</v>
+      </c>
+      <c r="F13">
+        <v>-0.011662613123663</v>
+      </c>
+      <c r="G13">
+        <v>0.1444440625065426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.0009843509403176286</v>
+        <v>0.01007521913161025</v>
       </c>
       <c r="C14">
-        <v>0.006790935248403045</v>
+        <v>-0.02724342400758704</v>
       </c>
       <c r="D14">
-        <v>0.01762531222725833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01071784430445139</v>
+      </c>
+      <c r="E14">
+        <v>0.01268537874005079</v>
+      </c>
+      <c r="F14">
+        <v>-0.006219139317543278</v>
+      </c>
+      <c r="G14">
+        <v>0.1139659122369104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01031983177055364</v>
+        <v>0.03384288610319017</v>
       </c>
       <c r="C16">
-        <v>-0.004468601827384284</v>
+        <v>-0.04488484493796517</v>
       </c>
       <c r="D16">
-        <v>0.03307306107417259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002354111451442863</v>
+      </c>
+      <c r="E16">
+        <v>0.01805451597120226</v>
+      </c>
+      <c r="F16">
+        <v>-0.004291986224154709</v>
+      </c>
+      <c r="G16">
+        <v>0.09152717636717643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01152284279859317</v>
+        <v>0.02096807350244303</v>
       </c>
       <c r="C19">
-        <v>0.007657164503673379</v>
+        <v>-0.04748338922109412</v>
       </c>
       <c r="D19">
-        <v>0.03533848507338327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02059929673831199</v>
+      </c>
+      <c r="E19">
+        <v>0.08780487701526708</v>
+      </c>
+      <c r="F19">
+        <v>-0.003461358489373174</v>
+      </c>
+      <c r="G19">
+        <v>0.1441446193157845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.00168870042609792</v>
+        <v>0.01481131778936776</v>
       </c>
       <c r="C20">
-        <v>0.009777143929468674</v>
+        <v>-0.04113058352538993</v>
       </c>
       <c r="D20">
-        <v>0.02683192032356288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01526888837388542</v>
+      </c>
+      <c r="E20">
+        <v>0.04178115869625629</v>
+      </c>
+      <c r="F20">
+        <v>-0.02345682741778875</v>
+      </c>
+      <c r="G20">
+        <v>0.1156632700833695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0004314613422411751</v>
+        <v>0.009854364217158285</v>
       </c>
       <c r="C21">
-        <v>0.01391601743111829</v>
+        <v>-0.03722423647770173</v>
       </c>
       <c r="D21">
-        <v>0.008595033427734523</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02011313921107427</v>
+      </c>
+      <c r="E21">
+        <v>0.05086076788474335</v>
+      </c>
+      <c r="F21">
+        <v>-0.01189331149860919</v>
+      </c>
+      <c r="G21">
+        <v>0.1437948461911133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001172200085902686</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007060995587422587</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002271589930498093</v>
+      </c>
+      <c r="E22">
+        <v>0.01735810638487849</v>
+      </c>
+      <c r="F22">
+        <v>0.005926743658727423</v>
+      </c>
+      <c r="G22">
+        <v>0.004037457710031938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.00118181876223852</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007028104832411792</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002267377275555529</v>
+      </c>
+      <c r="E23">
+        <v>0.0173726175039672</v>
+      </c>
+      <c r="F23">
+        <v>0.005717459482394483</v>
+      </c>
+      <c r="G23">
+        <v>0.003877852649269589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.003569908111737723</v>
+        <v>0.02914789981335686</v>
       </c>
       <c r="C24">
-        <v>0.002805338051478942</v>
+        <v>-0.04828741070569387</v>
       </c>
       <c r="D24">
-        <v>0.03624130171639241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007545190751221904</v>
+      </c>
+      <c r="E24">
+        <v>0.01718617202759174</v>
+      </c>
+      <c r="F24">
+        <v>0.007015199019253936</v>
+      </c>
+      <c r="G24">
+        <v>0.09124074840538438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01975268827526124</v>
+        <v>0.04231235620130851</v>
       </c>
       <c r="C25">
-        <v>0.001735903276350608</v>
+        <v>-0.05610494712988365</v>
       </c>
       <c r="D25">
-        <v>0.05068057073175432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01163036610897</v>
+      </c>
+      <c r="E25">
+        <v>0.008189600806552353</v>
+      </c>
+      <c r="F25">
+        <v>0.004975162142671507</v>
+      </c>
+      <c r="G25">
+        <v>0.09796518952032834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005558604100864306</v>
+        <v>0.01456429999423582</v>
       </c>
       <c r="C26">
-        <v>0.02163301715963686</v>
+        <v>-0.01125101394950296</v>
       </c>
       <c r="D26">
-        <v>-0.002380440846184618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02424353105051682</v>
+      </c>
+      <c r="E26">
+        <v>0.008704464841403633</v>
+      </c>
+      <c r="F26">
+        <v>-0.006461500967698551</v>
+      </c>
+      <c r="G26">
+        <v>0.08542178777192301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1749338264567823</v>
+        <v>0.1290963017696817</v>
       </c>
       <c r="C28">
-        <v>-0.05126103943664757</v>
+        <v>0.2425387482912733</v>
       </c>
       <c r="D28">
-        <v>-0.1960321834345213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007122252769921701</v>
+      </c>
+      <c r="E28">
+        <v>0.002670285095990264</v>
+      </c>
+      <c r="F28">
+        <v>-0.02148330784109026</v>
+      </c>
+      <c r="G28">
+        <v>0.04961528951874306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007690219621223062</v>
+        <v>0.009530361931014695</v>
       </c>
       <c r="C29">
-        <v>0.00381925530859523</v>
+        <v>-0.02302604975103474</v>
       </c>
       <c r="D29">
-        <v>0.01540609263031233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009565582836983007</v>
+      </c>
+      <c r="E29">
+        <v>0.005264900196193367</v>
+      </c>
+      <c r="F29">
+        <v>-0.01187808144073127</v>
+      </c>
+      <c r="G29">
+        <v>0.102996623910336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02208686877757426</v>
+        <v>0.03949333526119941</v>
       </c>
       <c r="C30">
-        <v>0.01348909024641124</v>
+        <v>-0.06649730233791851</v>
       </c>
       <c r="D30">
-        <v>0.09080665928111727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03020341053202875</v>
+      </c>
+      <c r="E30">
+        <v>0.06968626425214845</v>
+      </c>
+      <c r="F30">
+        <v>0.02354185712259122</v>
+      </c>
+      <c r="G30">
+        <v>0.1300350569754118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02549219602340361</v>
+        <v>0.05351282673292858</v>
       </c>
       <c r="C31">
-        <v>-0.005625950410750571</v>
+        <v>-0.04007718285333267</v>
       </c>
       <c r="D31">
-        <v>0.02087889494517484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003993765816876276</v>
+      </c>
+      <c r="E31">
+        <v>-0.002691011071673781</v>
+      </c>
+      <c r="F31">
+        <v>-0.03646663762965863</v>
+      </c>
+      <c r="G31">
+        <v>0.09823458787979762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.009971981390896632</v>
+        <v>0.002052274203527294</v>
       </c>
       <c r="C32">
-        <v>-0.01259986093200591</v>
+        <v>-0.02229071420053139</v>
       </c>
       <c r="D32">
-        <v>0.01831660266781654</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001827942754533093</v>
+      </c>
+      <c r="E32">
+        <v>0.04598279548769923</v>
+      </c>
+      <c r="F32">
+        <v>0.0318569166373302</v>
+      </c>
+      <c r="G32">
+        <v>0.08233008339440642</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009881652869302395</v>
+        <v>0.02743781596686987</v>
       </c>
       <c r="C33">
-        <v>0.006682948723022191</v>
+        <v>-0.04940429008535272</v>
       </c>
       <c r="D33">
-        <v>0.03839045863717228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01726603618076539</v>
+      </c>
+      <c r="E33">
+        <v>0.05517243552844235</v>
+      </c>
+      <c r="F33">
+        <v>0.006429276624557478</v>
+      </c>
+      <c r="G33">
+        <v>0.1623901681803558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.02433404038275199</v>
+        <v>0.04102180878371214</v>
       </c>
       <c r="C34">
-        <v>-0.01737502921090634</v>
+        <v>-0.05881018474397336</v>
       </c>
       <c r="D34">
-        <v>0.04823158804047716</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004035182713755565</v>
+      </c>
+      <c r="E34">
+        <v>0.01388641251609867</v>
+      </c>
+      <c r="F34">
+        <v>0.01819462264653191</v>
+      </c>
+      <c r="G34">
+        <v>0.09142131333651195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.006106080369537861</v>
+        <v>0.01610762796367895</v>
       </c>
       <c r="C36">
-        <v>0.009252835370158164</v>
+        <v>-0.009934183234155052</v>
       </c>
       <c r="D36">
-        <v>-0.005275552004692033</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01296616667069198</v>
+      </c>
+      <c r="E36">
+        <v>0.01031215184117943</v>
+      </c>
+      <c r="F36">
+        <v>-0.008991013048190001</v>
+      </c>
+      <c r="G36">
+        <v>0.0936865976696893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02248767498827595</v>
+        <v>0.03264496838466706</v>
       </c>
       <c r="C38">
-        <v>-0.01751682858559509</v>
+        <v>-0.02830136407418119</v>
       </c>
       <c r="D38">
-        <v>0.01799338618188446</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007567532840049919</v>
+      </c>
+      <c r="E38">
+        <v>0.006416380430764276</v>
+      </c>
+      <c r="F38">
+        <v>-0.01753904245351991</v>
+      </c>
+      <c r="G38">
+        <v>0.08728169788019154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.002356824181350534</v>
+        <v>0.03655994103863796</v>
       </c>
       <c r="C39">
-        <v>0.006800835973458645</v>
+        <v>-0.07911713843565008</v>
       </c>
       <c r="D39">
-        <v>0.08772622780929171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01247137637142254</v>
+      </c>
+      <c r="E39">
+        <v>0.03141457241300009</v>
+      </c>
+      <c r="F39">
+        <v>0.01724422204287704</v>
+      </c>
+      <c r="G39">
+        <v>0.09485029876618441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01731484483027196</v>
+        <v>0.01383725960377244</v>
       </c>
       <c r="C40">
-        <v>0.003288082514574612</v>
+        <v>-0.03741413784904271</v>
       </c>
       <c r="D40">
-        <v>0.02671403735733541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01538470557887362</v>
+      </c>
+      <c r="E40">
+        <v>0.03474533948395686</v>
+      </c>
+      <c r="F40">
+        <v>-0.01499033568867798</v>
+      </c>
+      <c r="G40">
+        <v>0.1258705201165917</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01261127420959231</v>
+        <v>0.02056774229055694</v>
       </c>
       <c r="C41">
-        <v>-0.0007421260084957437</v>
+        <v>-0.003456078292824435</v>
       </c>
       <c r="D41">
-        <v>-0.009793700229815412</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005014157646978677</v>
+      </c>
+      <c r="E41">
+        <v>0.01002241982295119</v>
+      </c>
+      <c r="F41">
+        <v>-0.01549670073076718</v>
+      </c>
+      <c r="G41">
+        <v>0.08986589913244306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.02136503988695239</v>
+        <v>0.005761492529192792</v>
       </c>
       <c r="C42">
-        <v>0.08544760597186873</v>
+        <v>-0.02369001084658316</v>
       </c>
       <c r="D42">
-        <v>0.0639778227528653</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08584907273836719</v>
+      </c>
+      <c r="E42">
+        <v>-0.001315634624105741</v>
+      </c>
+      <c r="F42">
+        <v>-0.03817324444461061</v>
+      </c>
+      <c r="G42">
+        <v>-0.02692258444909455</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01620924747439086</v>
+        <v>0.03565119821947068</v>
       </c>
       <c r="C43">
-        <v>-0.001577199446582294</v>
+        <v>-0.0183241080419983</v>
       </c>
       <c r="D43">
-        <v>-0.004180375057066653</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006305855454099208</v>
+      </c>
+      <c r="E43">
+        <v>0.02510600236403947</v>
+      </c>
+      <c r="F43">
+        <v>-0.011740993613584</v>
+      </c>
+      <c r="G43">
+        <v>0.1193429632070803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003249592324067854</v>
+        <v>0.01322087791038375</v>
       </c>
       <c r="C44">
-        <v>5.436071270250453e-05</v>
+        <v>-0.05662713207156441</v>
       </c>
       <c r="D44">
-        <v>0.04763865507333006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007672432678993328</v>
+      </c>
+      <c r="E44">
+        <v>0.03179520648903778</v>
+      </c>
+      <c r="F44">
+        <v>-0.01541766210724865</v>
+      </c>
+      <c r="G44">
+        <v>0.1140848005906885</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.001569511372593163</v>
+        <v>0.008926032461667541</v>
       </c>
       <c r="C46">
-        <v>0.01030274289933897</v>
+        <v>-0.01553655091239974</v>
       </c>
       <c r="D46">
-        <v>-0.002525648463022065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01281759858979468</v>
+      </c>
+      <c r="E46">
+        <v>9.271043136004831e-05</v>
+      </c>
+      <c r="F46">
+        <v>-0.01552445463095938</v>
+      </c>
+      <c r="G46">
+        <v>0.1091364960489943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04048023438186711</v>
+        <v>0.07928597669009133</v>
       </c>
       <c r="C47">
-        <v>-0.02015766187341229</v>
+        <v>-0.07156779724112566</v>
       </c>
       <c r="D47">
-        <v>0.0624828305299456</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004864390687674009</v>
+      </c>
+      <c r="E47">
+        <v>-0.01004826861295382</v>
+      </c>
+      <c r="F47">
+        <v>-0.04958679757973906</v>
+      </c>
+      <c r="G47">
+        <v>0.08662140769405588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00454909789959397</v>
+        <v>0.01964764250486915</v>
       </c>
       <c r="C48">
-        <v>-0.0005353796326002913</v>
+        <v>-0.01295440189080446</v>
       </c>
       <c r="D48">
-        <v>0.003634754687989565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002473887711193157</v>
+      </c>
+      <c r="E48">
+        <v>0.004877253361955403</v>
+      </c>
+      <c r="F48">
+        <v>-0.02113285321381046</v>
+      </c>
+      <c r="G48">
+        <v>0.1028033803745488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04440948246970831</v>
+        <v>0.07451606572895741</v>
       </c>
       <c r="C50">
-        <v>-0.01960413893150736</v>
+        <v>-0.07371716570329991</v>
       </c>
       <c r="D50">
-        <v>0.05069536462885511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002067592515837411</v>
+      </c>
+      <c r="E50">
+        <v>-0.01158214135289937</v>
+      </c>
+      <c r="F50">
+        <v>-0.05162263747270845</v>
+      </c>
+      <c r="G50">
+        <v>0.09690411245579475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.004325503898694262</v>
+        <v>0.0124503540283845</v>
       </c>
       <c r="C51">
-        <v>0.004207750503403317</v>
+        <v>-0.03686015387193274</v>
       </c>
       <c r="D51">
-        <v>0.01761976464283597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01149981361605835</v>
+      </c>
+      <c r="E51">
+        <v>0.03345091672703378</v>
+      </c>
+      <c r="F51">
+        <v>0.01194931902016171</v>
+      </c>
+      <c r="G51">
+        <v>0.1224379973480035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.05989824177548598</v>
+        <v>0.08114046838687963</v>
       </c>
       <c r="C53">
-        <v>-0.02685810291860725</v>
+        <v>-0.08382566712849499</v>
       </c>
       <c r="D53">
-        <v>0.09345086022929978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003668536772103778</v>
+      </c>
+      <c r="E53">
+        <v>-0.03177668745684976</v>
+      </c>
+      <c r="F53">
+        <v>-0.05439099987245891</v>
+      </c>
+      <c r="G53">
+        <v>0.0896057211306983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01465075384143392</v>
+        <v>0.03263559388423633</v>
       </c>
       <c r="C54">
-        <v>-0.00842023246605021</v>
+        <v>-0.01856470631538327</v>
       </c>
       <c r="D54">
-        <v>-0.00701104230493317</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009060579877906846</v>
+      </c>
+      <c r="E54">
+        <v>0.01876409143072104</v>
+      </c>
+      <c r="F54">
+        <v>-0.009250970997818951</v>
+      </c>
+      <c r="G54">
+        <v>0.1103656868299042</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.03940351259334198</v>
+        <v>0.07368349885859571</v>
       </c>
       <c r="C55">
-        <v>-0.01958195594092046</v>
+        <v>-0.0676211712158389</v>
       </c>
       <c r="D55">
-        <v>0.07384259396406986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005225105644725438</v>
+      </c>
+      <c r="E55">
+        <v>-0.02975087148121033</v>
+      </c>
+      <c r="F55">
+        <v>-0.05257153510120524</v>
+      </c>
+      <c r="G55">
+        <v>0.06779624887898154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.09165951890470399</v>
+        <v>0.1358581131449326</v>
       </c>
       <c r="C56">
-        <v>-0.0460609059636985</v>
+        <v>-0.1063686078344391</v>
       </c>
       <c r="D56">
-        <v>0.1341428625312836</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01294508784782702</v>
+      </c>
+      <c r="E56">
+        <v>-0.03884933568802049</v>
+      </c>
+      <c r="F56">
+        <v>-0.06650203749771788</v>
+      </c>
+      <c r="G56">
+        <v>0.04388494750015753</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01359215706057067</v>
+        <v>0.004008755231837708</v>
       </c>
       <c r="C57">
-        <v>0.0175987873886493</v>
+        <v>-0.005152195080528385</v>
       </c>
       <c r="D57">
-        <v>0.01622706371559858</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02274959410264387</v>
+      </c>
+      <c r="E57">
+        <v>0.02434548681136737</v>
+      </c>
+      <c r="F57">
+        <v>0.0007540384121966515</v>
+      </c>
+      <c r="G57">
+        <v>0.01893809814072392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0147041502946217</v>
+        <v>0.04448182131290945</v>
       </c>
       <c r="C58">
-        <v>-0.008801188123574393</v>
+        <v>-0.03693606515293123</v>
       </c>
       <c r="D58">
-        <v>0.07809567968304129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02931626097360123</v>
+      </c>
+      <c r="E58">
+        <v>0.8174084557061539</v>
+      </c>
+      <c r="F58">
+        <v>-0.4780734460694543</v>
+      </c>
+      <c r="G58">
+        <v>-0.2486275433630804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2096858549533331</v>
+        <v>0.1599866189636715</v>
       </c>
       <c r="C59">
-        <v>-0.07057052000430993</v>
+        <v>0.2066428202502241</v>
       </c>
       <c r="D59">
-        <v>-0.1772265762483258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01145469215116324</v>
+      </c>
+      <c r="E59">
+        <v>0.02251007297806259</v>
+      </c>
+      <c r="F59">
+        <v>-0.004016211613172465</v>
+      </c>
+      <c r="G59">
+        <v>0.03608045242928799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2690064577403853</v>
+        <v>0.2866731467816421</v>
       </c>
       <c r="C60">
-        <v>-0.08892719990351396</v>
+        <v>-0.115261507917442</v>
       </c>
       <c r="D60">
-        <v>0.1764610169027831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.014939388860052</v>
+      </c>
+      <c r="E60">
+        <v>0.0857152728867434</v>
+      </c>
+      <c r="F60">
+        <v>0.3228299467590152</v>
+      </c>
+      <c r="G60">
+        <v>-0.1627670578795784</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.007374647521328648</v>
+        <v>0.03898039651011439</v>
       </c>
       <c r="C61">
-        <v>-0.002213378071319082</v>
+        <v>-0.06416029272319418</v>
       </c>
       <c r="D61">
-        <v>0.06712591902045775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006388235257495294</v>
+      </c>
+      <c r="E61">
+        <v>0.03086083419870496</v>
+      </c>
+      <c r="F61">
+        <v>0.01078195948427804</v>
+      </c>
+      <c r="G61">
+        <v>0.1009956611546382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.005738061026564713</v>
+        <v>0.01441927920841547</v>
       </c>
       <c r="C63">
-        <v>0.00474615134192173</v>
+        <v>-0.03034608517941711</v>
       </c>
       <c r="D63">
-        <v>0.02152264226865322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00890923995591897</v>
+      </c>
+      <c r="E63">
+        <v>0.005410754293152064</v>
+      </c>
+      <c r="F63">
+        <v>-0.01497726097354699</v>
+      </c>
+      <c r="G63">
+        <v>0.09483021464003463</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03139207735580751</v>
+        <v>0.04904987781766636</v>
       </c>
       <c r="C64">
-        <v>-0.007982582834713998</v>
+        <v>-0.0465044495750489</v>
       </c>
       <c r="D64">
-        <v>0.04022621330525439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006552656281076665</v>
+      </c>
+      <c r="E64">
+        <v>0.006881071506363162</v>
+      </c>
+      <c r="F64">
+        <v>0.00555876788089442</v>
+      </c>
+      <c r="G64">
+        <v>0.100844010793685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.05644559749518972</v>
+        <v>0.07369702417768129</v>
       </c>
       <c r="C65">
-        <v>-0.007592682883518483</v>
+        <v>-0.06055817907799291</v>
       </c>
       <c r="D65">
-        <v>0.1058871422314047</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01768406636668775</v>
+      </c>
+      <c r="E65">
+        <v>0.04839457757289552</v>
+      </c>
+      <c r="F65">
+        <v>0.0120373676966337</v>
+      </c>
+      <c r="G65">
+        <v>0.04259302897009273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.007903646477818603</v>
+        <v>0.04821159676850642</v>
       </c>
       <c r="C66">
-        <v>0.0008557115310237474</v>
+        <v>-0.1065611269698121</v>
       </c>
       <c r="D66">
-        <v>0.1326788023690623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01315698589205324</v>
+      </c>
+      <c r="E66">
+        <v>0.05172889455909473</v>
+      </c>
+      <c r="F66">
+        <v>0.02554725397619324</v>
+      </c>
+      <c r="G66">
+        <v>0.1044581600757192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04765143186582321</v>
+        <v>0.05588489675586515</v>
       </c>
       <c r="C67">
-        <v>-0.02391575828104238</v>
+        <v>-0.0335691223099591</v>
       </c>
       <c r="D67">
-        <v>0.03465497193471244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006202841874780888</v>
+      </c>
+      <c r="E67">
+        <v>-0.004503322374362941</v>
+      </c>
+      <c r="F67">
+        <v>-0.01344767186922917</v>
+      </c>
+      <c r="G67">
+        <v>0.07379478102811175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.20507062952019</v>
+        <v>0.1595919915197699</v>
       </c>
       <c r="C68">
-        <v>-0.04606311066091967</v>
+        <v>0.2712197947036464</v>
       </c>
       <c r="D68">
-        <v>-0.2307616131763155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.003895784585027209</v>
+      </c>
+      <c r="E68">
+        <v>-0.002454449053024333</v>
+      </c>
+      <c r="F68">
+        <v>-0.04293879947398818</v>
+      </c>
+      <c r="G68">
+        <v>0.02009120005961708</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04610844091072443</v>
+        <v>0.08197761275076081</v>
       </c>
       <c r="C69">
-        <v>-0.02577751703070326</v>
+        <v>-0.0746137075494695</v>
       </c>
       <c r="D69">
-        <v>0.0592127862797646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008911242108086822</v>
+      </c>
+      <c r="E69">
+        <v>-0.02394126711612705</v>
+      </c>
+      <c r="F69">
+        <v>-0.03052345951924029</v>
+      </c>
+      <c r="G69">
+        <v>0.09883153084874258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1794395079502221</v>
+        <v>0.1446869892934705</v>
       </c>
       <c r="C71">
-        <v>-0.05016233700061141</v>
+        <v>0.2295979556433471</v>
       </c>
       <c r="D71">
-        <v>-0.1786623882077861</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003328799544417333</v>
+      </c>
+      <c r="E71">
+        <v>0.03031467755307043</v>
+      </c>
+      <c r="F71">
+        <v>-0.02697554398314321</v>
+      </c>
+      <c r="G71">
+        <v>0.065096583579725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.04280483834073224</v>
+        <v>0.08690031351305426</v>
       </c>
       <c r="C72">
-        <v>-0.02703510383419425</v>
+        <v>-0.06932190116828858</v>
       </c>
       <c r="D72">
-        <v>0.08221139573093421</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008331467538459722</v>
+      </c>
+      <c r="E72">
+        <v>-0.004711183244624485</v>
+      </c>
+      <c r="F72">
+        <v>0.03442431265562122</v>
+      </c>
+      <c r="G72">
+        <v>0.09364315687460803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3524631636523474</v>
+        <v>0.3709169004352983</v>
       </c>
       <c r="C73">
-        <v>-0.1147000056414526</v>
+        <v>-0.1226070865207046</v>
       </c>
       <c r="D73">
-        <v>0.2649188109141415</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02691743411618152</v>
+      </c>
+      <c r="E73">
+        <v>0.2115245681551101</v>
+      </c>
+      <c r="F73">
+        <v>0.5494113650269188</v>
+      </c>
+      <c r="G73">
+        <v>-0.3112817331235544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08010237042477057</v>
+        <v>0.1042895442116339</v>
       </c>
       <c r="C74">
-        <v>-0.04200404682469604</v>
+        <v>-0.1103105764077688</v>
       </c>
       <c r="D74">
-        <v>0.1388277459405802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009403670293459555</v>
+      </c>
+      <c r="E74">
+        <v>-0.01478993295689197</v>
+      </c>
+      <c r="F74">
+        <v>-0.06000452025824908</v>
+      </c>
+      <c r="G74">
+        <v>0.07316533842311274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1811562994703417</v>
+        <v>0.2464277377371183</v>
       </c>
       <c r="C75">
-        <v>-0.08971633935930091</v>
+        <v>-0.1523973576892184</v>
       </c>
       <c r="D75">
-        <v>0.2278355519911203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03203791792102044</v>
+      </c>
+      <c r="E75">
+        <v>-0.09939083582156445</v>
+      </c>
+      <c r="F75">
+        <v>-0.1480678878333503</v>
+      </c>
+      <c r="G75">
+        <v>-0.01494795758261599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.08185424113234456</v>
+        <v>0.115243149639357</v>
       </c>
       <c r="C76">
-        <v>-0.04876015674951202</v>
+        <v>-0.1117724583418363</v>
       </c>
       <c r="D76">
-        <v>0.151658793250192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01767751941849491</v>
+      </c>
+      <c r="E76">
+        <v>-0.04214336523805647</v>
+      </c>
+      <c r="F76">
+        <v>-0.08675890528442903</v>
+      </c>
+      <c r="G76">
+        <v>0.05481060673438487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03347037773632981</v>
+        <v>0.07154873314062367</v>
       </c>
       <c r="C77">
-        <v>-0.006034913076248254</v>
+        <v>-0.05653967305427904</v>
       </c>
       <c r="D77">
-        <v>0.06731338155695038</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01072633447943677</v>
+      </c>
+      <c r="E77">
+        <v>0.05337828962605016</v>
+      </c>
+      <c r="F77">
+        <v>-0.002338058424080509</v>
+      </c>
+      <c r="G77">
+        <v>0.07372260503660848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02506498343441551</v>
+        <v>0.04161232575715292</v>
       </c>
       <c r="C78">
-        <v>-0.007704315735350995</v>
+        <v>-0.05292838582877887</v>
       </c>
       <c r="D78">
-        <v>0.06136488213506924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007449087034348345</v>
+      </c>
+      <c r="E78">
+        <v>0.04108082484702794</v>
+      </c>
+      <c r="F78">
+        <v>0.02981722882686097</v>
+      </c>
+      <c r="G78">
+        <v>0.1037750820109169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001050405902334899</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0006453100845483494</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0004420052869411614</v>
+      </c>
+      <c r="E79">
+        <v>0.005413767027110077</v>
+      </c>
+      <c r="F79">
+        <v>4.978471863943364e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.003326923261113639</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0431077124592012</v>
+        <v>0.04183571561178149</v>
       </c>
       <c r="C80">
-        <v>-0.006532088913340694</v>
+        <v>-0.05224577115882839</v>
       </c>
       <c r="D80">
-        <v>0.06904636970966747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01417810967715958</v>
+      </c>
+      <c r="E80">
+        <v>0.03255773905654922</v>
+      </c>
+      <c r="F80">
+        <v>-0.0004145544694755595</v>
+      </c>
+      <c r="G80">
+        <v>0.05155203180283428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.09160257565216885</v>
+        <v>0.1381452862746683</v>
       </c>
       <c r="C81">
-        <v>-0.04582210276186455</v>
+        <v>-0.0969227160492291</v>
       </c>
       <c r="D81">
-        <v>0.129431002489074</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01566860256210549</v>
+      </c>
+      <c r="E81">
+        <v>-0.05957371787911324</v>
+      </c>
+      <c r="F81">
+        <v>-0.1145429504794565</v>
+      </c>
+      <c r="G81">
+        <v>0.02538749943207995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.01533049969412227</v>
+        <v>0.1477117173859733</v>
       </c>
       <c r="C82">
-        <v>-0.006159831163509702</v>
+        <v>-0.08703500075979469</v>
       </c>
       <c r="D82">
-        <v>0.01955777936235896</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01315021061424129</v>
+      </c>
+      <c r="E82">
+        <v>-0.1283174823115786</v>
+      </c>
+      <c r="F82">
+        <v>-0.04287651654264721</v>
+      </c>
+      <c r="G82">
+        <v>0.05930871820050398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0190724232809536</v>
+        <v>0.03386651599385144</v>
       </c>
       <c r="C83">
-        <v>-0.003274360225388725</v>
+        <v>-0.03178825161412444</v>
       </c>
       <c r="D83">
-        <v>0.01886576550143355</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.00678159887654533</v>
+      </c>
+      <c r="E83">
+        <v>0.03454333677601109</v>
+      </c>
+      <c r="F83">
+        <v>0.02976140028265575</v>
+      </c>
+      <c r="G83">
+        <v>0.05961532882415947</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1799136452343837</v>
+        <v>0.2080353532954838</v>
       </c>
       <c r="C85">
-        <v>-0.07706632069072432</v>
+        <v>-0.1464312909095832</v>
       </c>
       <c r="D85">
-        <v>0.2400876856068546</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01754116264664092</v>
+      </c>
+      <c r="E85">
+        <v>-0.1139986391424853</v>
+      </c>
+      <c r="F85">
+        <v>-0.08363434409499636</v>
+      </c>
+      <c r="G85">
+        <v>-0.05274849206840033</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01200239226234887</v>
+        <v>0.01354388757805253</v>
       </c>
       <c r="C86">
-        <v>0.000914611970182896</v>
+        <v>-0.02826193936595747</v>
       </c>
       <c r="D86">
-        <v>0.01277445729329469</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01275125631853714</v>
+      </c>
+      <c r="E86">
+        <v>0.06387453873937837</v>
+      </c>
+      <c r="F86">
+        <v>0.02275551321246943</v>
+      </c>
+      <c r="G86">
+        <v>0.1831612093970783</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.005828166837052549</v>
+        <v>0.02142117423937679</v>
       </c>
       <c r="C87">
-        <v>0.009820102203222896</v>
+        <v>-0.01673247956966679</v>
       </c>
       <c r="D87">
-        <v>0.02146068462040391</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01309415654632157</v>
+      </c>
+      <c r="E87">
+        <v>0.09972855046443607</v>
+      </c>
+      <c r="F87">
+        <v>-0.01655797407059003</v>
+      </c>
+      <c r="G87">
+        <v>0.1227723094052871</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06172608293986687</v>
+        <v>0.09197795634520556</v>
       </c>
       <c r="C88">
-        <v>0.0003417083111435833</v>
+        <v>-0.07200164483628771</v>
       </c>
       <c r="D88">
-        <v>0.06233729479276015</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02225165189525376</v>
+      </c>
+      <c r="E88">
+        <v>-0.004960894920557876</v>
+      </c>
+      <c r="F88">
+        <v>-0.023538382223854</v>
+      </c>
+      <c r="G88">
+        <v>0.09652414260672219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3107122953357243</v>
+        <v>0.2347198868823948</v>
       </c>
       <c r="C89">
-        <v>-0.08135621251183529</v>
+        <v>0.3646023590722007</v>
       </c>
       <c r="D89">
-        <v>-0.2985427341434794</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0006212569586584455</v>
+      </c>
+      <c r="E89">
+        <v>-0.02669129910379056</v>
+      </c>
+      <c r="F89">
+        <v>-0.01904773965984822</v>
+      </c>
+      <c r="G89">
+        <v>0.0769170897040766</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2646001969271059</v>
+        <v>0.2124774089745436</v>
       </c>
       <c r="C90">
-        <v>-0.07274217151548605</v>
+        <v>0.3152792382185355</v>
       </c>
       <c r="D90">
-        <v>-0.2581972796199829</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005145791279445107</v>
+      </c>
+      <c r="E90">
+        <v>-0.006552111950054865</v>
+      </c>
+      <c r="F90">
+        <v>-0.0451948685363199</v>
+      </c>
+      <c r="G90">
+        <v>0.04956373433569841</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1418421814617249</v>
+        <v>0.184415152861334</v>
       </c>
       <c r="C91">
-        <v>-0.07178886575346424</v>
+        <v>-0.1381099919083463</v>
       </c>
       <c r="D91">
-        <v>0.1605054298660361</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02298301928375266</v>
+      </c>
+      <c r="E91">
+        <v>-0.0838167466337153</v>
+      </c>
+      <c r="F91">
+        <v>-0.1155772188347356</v>
+      </c>
+      <c r="G91">
+        <v>0.03062173767181574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2356957030727994</v>
+        <v>0.199449787820955</v>
       </c>
       <c r="C92">
-        <v>-0.1009503182035053</v>
+        <v>0.2583302851668706</v>
       </c>
       <c r="D92">
-        <v>-0.1968076453935588</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03911866764496291</v>
+      </c>
+      <c r="E92">
+        <v>0.02032389773438265</v>
+      </c>
+      <c r="F92">
+        <v>-0.05788490893124599</v>
+      </c>
+      <c r="G92">
+        <v>0.09267675068284041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2838408061788187</v>
+        <v>0.2349198533930715</v>
       </c>
       <c r="C93">
-        <v>-0.086385110002521</v>
+        <v>0.3094490222609443</v>
       </c>
       <c r="D93">
-        <v>-0.237584903906184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01134691680617017</v>
+      </c>
+      <c r="E93">
+        <v>0.003905500224886569</v>
+      </c>
+      <c r="F93">
+        <v>-0.03699063518041175</v>
+      </c>
+      <c r="G93">
+        <v>0.06116612841069329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1971996799669853</v>
+        <v>0.3209404205436635</v>
       </c>
       <c r="C94">
-        <v>-0.07425570156969068</v>
+        <v>-0.1915441571871624</v>
       </c>
       <c r="D94">
-        <v>0.2379414610813924</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02465760665316467</v>
+      </c>
+      <c r="E94">
+        <v>-0.3310444160622125</v>
+      </c>
+      <c r="F94">
+        <v>-0.4267263974172917</v>
+      </c>
+      <c r="G94">
+        <v>-0.3886729132210356</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.05898964228299014</v>
+        <v>0.09588613986430182</v>
       </c>
       <c r="C95">
-        <v>-0.03480776165222094</v>
+        <v>-0.0835397922230673</v>
       </c>
       <c r="D95">
-        <v>0.1346886340825062</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009042324132903562</v>
+      </c>
+      <c r="E95">
+        <v>0.1019894416031566</v>
+      </c>
+      <c r="F95">
+        <v>0.1615527543711842</v>
+      </c>
+      <c r="G95">
+        <v>0.008875213644703986</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1643242551656986</v>
+        <v>0.1898212394640761</v>
       </c>
       <c r="C98">
-        <v>-0.07667680671669747</v>
+        <v>-0.04769180205432539</v>
       </c>
       <c r="D98">
-        <v>0.09071193178136398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01020021470438645</v>
+      </c>
+      <c r="E98">
+        <v>0.1251365142216718</v>
+      </c>
+      <c r="F98">
+        <v>0.2136816323120746</v>
+      </c>
+      <c r="G98">
+        <v>-0.02896527300782477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007341225464820055</v>
+        <v>0.009373063242110539</v>
       </c>
       <c r="C101">
-        <v>0.003777623459429747</v>
+        <v>-0.02290885145222341</v>
       </c>
       <c r="D101">
-        <v>0.01568284355534154</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009386949899114268</v>
+      </c>
+      <c r="E101">
+        <v>0.004852214926643956</v>
+      </c>
+      <c r="F101">
+        <v>-0.01277066206041255</v>
+      </c>
+      <c r="G101">
+        <v>0.1025941238281706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09593580675355258</v>
+        <v>0.1175031862526944</v>
       </c>
       <c r="C102">
-        <v>-0.03277972339936099</v>
+        <v>-0.08454399272502119</v>
       </c>
       <c r="D102">
-        <v>0.1172482144689525</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0003944192500687997</v>
+      </c>
+      <c r="E102">
+        <v>-0.0411503206057966</v>
+      </c>
+      <c r="F102">
+        <v>-0.02609800868265757</v>
+      </c>
+      <c r="G102">
+        <v>0.01566924278013876</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.322014778126868</v>
+        <v>0.02130092906600468</v>
       </c>
       <c r="C104">
-        <v>0.9370618776915416</v>
+        <v>0.03090622788580473</v>
       </c>
       <c r="D104">
-        <v>0.02836051889783212</v>
+        <v>-0.9870441753690785</v>
+      </c>
+      <c r="E104">
+        <v>-0.07060578822593988</v>
+      </c>
+      <c r="F104">
+        <v>-0.02692757466981097</v>
+      </c>
+      <c r="G104">
+        <v>-0.04024332633715934</v>
       </c>
     </row>
   </sheetData>
